--- a/experiment result/64_0.7_40_zs10_kappa_lp.xlsx
+++ b/experiment result/64_0.7_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0189690970004299</v>
+        <v>0.00904581224461958</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0207312363687922</v>
+        <v>0.002232838927180019</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02836824816872101</v>
+        <v>0.002484043605518764</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02417388257710148</v>
+        <v>0.002633185411907096</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0311836777903544</v>
+        <v>0.003521444739072112</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03986092281200839</v>
+        <v>0.02434230376939386</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01680855760248261</v>
+        <v>0.0003719441627740666</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01771387299945537</v>
+        <v>0.003492645461365413</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02497036279380958</v>
+        <v>0.004232249146328143</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02054003412172415</v>
+        <v>0.002581140878109952</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02335776654911755</v>
+        <v>0.007492117370041044</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06444683998979747</v>
+        <v>0.1048586377186274</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02196945561166621</v>
+        <v>0.001483706116987355</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03107363531723153</v>
+        <v>0.004652290433733217</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03009471185060454</v>
+        <v>0.00232060915043535</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0349335669781931</v>
+        <v>0.003266094592241091</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03620867849216678</v>
+        <v>0.008405601566245728</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.007348712536312384</v>
+        <v>0.0002981417208064757</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02173757260735191</v>
+        <v>0.005455808941713225</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04579866349608805</v>
+        <v>0.009036688174169564</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02510050648220948</v>
+        <v>0.001998131792261235</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02731891292209303</v>
+        <v>0.001011351005956184</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02042803493848898</v>
+        <v>0.003765546317137281</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01002444321975958</v>
+        <v>0.00185536292644384</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01160274238180936</v>
+        <v>0.001606305143311208</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03629987192305094</v>
+        <v>0.008064448466161982</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02727030499325791</v>
+        <v>0.005261500759588203</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0308385811772062</v>
+        <v>0.004859360930517562</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03568230522112552</v>
+        <v>0.01518700080661612</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03567004852458786</v>
+        <v>0.009126742903176143</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01282020002366248</v>
+        <v>0.001228834145952107</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02260669522701716</v>
+        <v>0.0002995249363765761</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.03454787561221816</v>
+        <v>0.00231275081902285</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01921637848403876</v>
+        <v>0.001498666912934736</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01750049220829448</v>
+        <v>0.001917104319114874</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0324484735660262</v>
+        <v>0.003778595678856776</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01992973782091166</v>
+        <v>0.001194208455738833</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02143780771782088</v>
+        <v>0.001051016453389215</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03047277751536522</v>
+        <v>0.003208323250374454</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0316053010126868</v>
+        <v>0.005407659640489196</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0231103363588788</v>
+        <v>0.004157934202651189</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01560649861678741</v>
+        <v>0.01420641588592924</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01843645677542226</v>
+        <v>0.005862810881619952</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01211225845587546</v>
+        <v>0.001281336246496316</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02459901290733479</v>
+        <v>0.002598182170849629</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02690647099721782</v>
+        <v>0.002777465565256818</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.04812824381175342</v>
+        <v>0.01980469011806555</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01825897049894441</v>
+        <v>0.0009818404748164447</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04175778884659941</v>
+        <v>0.01027863562495937</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.009833319204006864</v>
+        <v>0.001211170699650596</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02730565363348642</v>
+        <v>0.0059753219845882</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0312956582389709</v>
+        <v>0.005107069180730883</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.007811550962813751</v>
+        <v>0.000112870353118264</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01224923662477092</v>
+        <v>0.0004014086090624026</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.03389553893461467</v>
+        <v>0.02192137282322664</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02038834416467792</v>
+        <v>0.002419895273214018</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02047063679878807</v>
+        <v>0.000845795544580235</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02433089130411913</v>
+        <v>0.002633060445938336</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02814331013403334</v>
+        <v>0.004354944666623671</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01750683056548031</v>
+        <v>0.001318271274278507</v>
       </c>
     </row>
   </sheetData>
